--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit2-App.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit2-App.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Slit2</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Slit2</t>
-  </si>
-  <si>
-    <t>App</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H2">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I2">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J2">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="N2">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="O2">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="P2">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="Q2">
-        <v>12.83624484757175</v>
+        <v>24.1416323117625</v>
       </c>
       <c r="R2">
-        <v>51.344979390287</v>
+        <v>96.56652924705</v>
       </c>
       <c r="S2">
-        <v>0.01417161260187069</v>
+        <v>0.02182133799687963</v>
       </c>
       <c r="T2">
-        <v>0.007865795543284648</v>
+        <v>0.01288167176397007</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H3">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I3">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J3">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>216.91135</v>
       </c>
       <c r="O3">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="P3">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="Q3">
-        <v>9.108722168658332</v>
+        <v>16.35905634619166</v>
       </c>
       <c r="R3">
-        <v>54.65233301195</v>
+        <v>98.15433807715</v>
       </c>
       <c r="S3">
-        <v>0.01005631190470136</v>
+        <v>0.01478675895773285</v>
       </c>
       <c r="T3">
-        <v>0.008372465673183746</v>
+        <v>0.01309348047587846</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H4">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I4">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J4">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="N4">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="O4">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="P4">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="Q4">
-        <v>19.15802753358666</v>
+        <v>31.80376305178533</v>
       </c>
       <c r="R4">
-        <v>114.94816520152</v>
+        <v>190.822578310712</v>
       </c>
       <c r="S4">
-        <v>0.02115105684302387</v>
+        <v>0.02874704801081501</v>
       </c>
       <c r="T4">
-        <v>0.01760948735957433</v>
+        <v>0.02545513272683101</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H5">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I5">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J5">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="N5">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="O5">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="P5">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="Q5">
-        <v>4.684792273415249</v>
+        <v>8.05254008220775</v>
       </c>
       <c r="R5">
-        <v>18.739169093661</v>
+        <v>32.210160328831</v>
       </c>
       <c r="S5">
-        <v>0.005172156032193268</v>
+        <v>0.007278596434494683</v>
       </c>
       <c r="T5">
-        <v>0.002870747529595068</v>
+        <v>0.004296734241730309</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H6">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I6">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J6">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="N6">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="O6">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="P6">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="Q6">
-        <v>11.20912508140767</v>
+        <v>15.6191723801435</v>
       </c>
       <c r="R6">
-        <v>67.25475048844601</v>
+        <v>93.715034280861</v>
       </c>
       <c r="S6">
-        <v>0.01237522189284757</v>
+        <v>0.01411798652788591</v>
       </c>
       <c r="T6">
-        <v>0.01030309336840076</v>
+        <v>0.01250129128972638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H7">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I7">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J7">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="N7">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="O7">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="P7">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="Q7">
-        <v>10.781684986062</v>
+        <v>37.24065257791384</v>
       </c>
       <c r="R7">
-        <v>64.69010991637199</v>
+        <v>223.443915467483</v>
       </c>
       <c r="S7">
-        <v>0.0119033147647367</v>
+        <v>0.03366138861832812</v>
       </c>
       <c r="T7">
-        <v>0.00991020318475482</v>
+        <v>0.02980671666623372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H8">
         <v>2.524493</v>
       </c>
       <c r="I8">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J8">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="N8">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="O8">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="P8">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="Q8">
-        <v>85.74217098944384</v>
+        <v>89.78883186797499</v>
       </c>
       <c r="R8">
-        <v>514.4530259366629</v>
+        <v>538.73299120785</v>
       </c>
       <c r="S8">
-        <v>0.09466201722816282</v>
+        <v>0.08115907090430856</v>
       </c>
       <c r="T8">
-        <v>0.07881164559211806</v>
+        <v>0.07186528930129588</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H9">
         <v>2.524493</v>
       </c>
       <c r="I9">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J9">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>216.91135</v>
       </c>
       <c r="O9">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="P9">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="Q9">
-        <v>60.84346496617221</v>
+        <v>60.84346496617222</v>
       </c>
       <c r="R9">
-        <v>547.5911846955499</v>
+        <v>547.5911846955501</v>
       </c>
       <c r="S9">
-        <v>0.06717307320755858</v>
+        <v>0.05499569361269998</v>
       </c>
       <c r="T9">
-        <v>0.08388824674326432</v>
+        <v>0.07304694449611354</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H10">
         <v>2.524493</v>
       </c>
       <c r="I10">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J10">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="N10">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="O10">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="P10">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="Q10">
-        <v>127.9697366411644</v>
+        <v>118.2862325359138</v>
       </c>
       <c r="R10">
-        <v>1151.72762977048</v>
+        <v>1064.576092823224</v>
       </c>
       <c r="S10">
-        <v>0.1412825599680788</v>
+        <v>0.1069175367767513</v>
       </c>
       <c r="T10">
-        <v>0.1764389462203228</v>
+        <v>0.1420111078077028</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H11">
         <v>2.524493</v>
       </c>
       <c r="I11">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J11">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="N11">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="O11">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="P11">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="Q11">
-        <v>31.29297274453149</v>
+        <v>29.94943167944783</v>
       </c>
       <c r="R11">
-        <v>187.757836467189</v>
+        <v>179.696590076687</v>
       </c>
       <c r="S11">
-        <v>0.03454841288574288</v>
+        <v>0.02707093965528021</v>
       </c>
       <c r="T11">
-        <v>0.02876356697067373</v>
+        <v>0.02397096083416788</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H12">
         <v>2.524493</v>
       </c>
       <c r="I12">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J12">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="N12">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="O12">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="P12">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="Q12">
-        <v>74.87351096718378</v>
+        <v>58.09164950599967</v>
       </c>
       <c r="R12">
-        <v>673.8615987046539</v>
+        <v>522.8248455539971</v>
       </c>
       <c r="S12">
-        <v>0.08266267932475364</v>
+        <v>0.05250835992763648</v>
       </c>
       <c r="T12">
-        <v>0.1032322463232779</v>
+        <v>0.06974319262572728</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H13">
         <v>2.524493</v>
       </c>
       <c r="I13">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J13">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="N13">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="O13">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="P13">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="Q13">
-        <v>72.01834248309198</v>
+        <v>138.5073987454768</v>
       </c>
       <c r="R13">
-        <v>648.1650823478278</v>
+        <v>1246.566588709291</v>
       </c>
       <c r="S13">
-        <v>0.07951048472655901</v>
+        <v>0.1251952114945029</v>
       </c>
       <c r="T13">
-        <v>0.09929566778653202</v>
+        <v>0.1662880684735339</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H14">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I14">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J14">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="N14">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="O14">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="P14">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="Q14">
-        <v>50.84810136745625</v>
+        <v>1.44011086675</v>
       </c>
       <c r="R14">
-        <v>203.392405469825</v>
+        <v>8.640665200499999</v>
       </c>
       <c r="S14">
-        <v>0.05613788165286968</v>
+        <v>0.001301699303945566</v>
       </c>
       <c r="T14">
-        <v>0.03115870520312524</v>
+        <v>0.001152637604386096</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H15">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I15">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J15">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>216.91135</v>
       </c>
       <c r="O15">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="P15">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="Q15">
-        <v>36.08229927520834</v>
+        <v>0.9758600623888888</v>
       </c>
       <c r="R15">
-        <v>216.49379565125</v>
+        <v>8.782740561499999</v>
       </c>
       <c r="S15">
-        <v>0.03983597798150008</v>
+        <v>0.0008820684527064333</v>
       </c>
       <c r="T15">
-        <v>0.03316577303572779</v>
+        <v>0.001171590011399373</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H16">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I16">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J16">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="N16">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="O16">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="P16">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="Q16">
-        <v>75.89052231366666</v>
+        <v>1.897176801591111</v>
       </c>
       <c r="R16">
-        <v>455.343133882</v>
+        <v>17.07459121432</v>
       </c>
       <c r="S16">
-        <v>0.083785491407665</v>
+        <v>0.001714835835983962</v>
       </c>
       <c r="T16">
-        <v>0.06975630403762209</v>
+        <v>0.002277696850470128</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H17">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I17">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J17">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="N17">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="O17">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="P17">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="Q17">
-        <v>18.55782553486875</v>
+        <v>0.4803548628183333</v>
       </c>
       <c r="R17">
-        <v>74.23130213947501</v>
+        <v>2.88212917691</v>
       </c>
       <c r="S17">
-        <v>0.02048841521303753</v>
+        <v>0.0004341871205989858</v>
       </c>
       <c r="T17">
-        <v>0.0113718663922836</v>
+        <v>0.000384466981756518</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H18">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I18">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J18">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="N18">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="O18">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="P18">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="Q18">
-        <v>44.40260645914167</v>
+        <v>0.9317240683566665</v>
       </c>
       <c r="R18">
-        <v>266.41563875485</v>
+        <v>8.385516615209999</v>
       </c>
       <c r="S18">
-        <v>0.04902185527968596</v>
+        <v>0.0008421744459065645</v>
       </c>
       <c r="T18">
-        <v>0.04081355117606016</v>
+        <v>0.001118601584324337</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H19">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I19">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J19">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="N19">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="O19">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="P19">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="Q19">
-        <v>42.70939185045</v>
+        <v>2.221501337181111</v>
       </c>
       <c r="R19">
-        <v>256.2563511027</v>
+        <v>19.99351203463</v>
       </c>
       <c r="S19">
-        <v>0.04715249381368481</v>
+        <v>0.00200798897577154</v>
       </c>
       <c r="T19">
-        <v>0.03925719882211715</v>
+        <v>0.002667071721923328</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.206538</v>
+        <v>0.794913</v>
       </c>
       <c r="H20">
-        <v>0.619614</v>
+        <v>1.589826</v>
       </c>
       <c r="I20">
-        <v>0.1226810226883485</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J20">
-        <v>0.1400069685560854</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="N20">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="O20">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="P20">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="Q20">
-        <v>21.044641254879</v>
+        <v>84.81819086842499</v>
       </c>
       <c r="R20">
-        <v>126.267847529274</v>
+        <v>339.2727634737</v>
       </c>
       <c r="S20">
-        <v>0.02323393693023149</v>
+        <v>0.0766661668656914</v>
       </c>
       <c r="T20">
-        <v>0.01934360640806477</v>
+        <v>0.04525792126526872</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.206538</v>
+        <v>0.794913</v>
       </c>
       <c r="H21">
-        <v>0.619614</v>
+        <v>1.589826</v>
       </c>
       <c r="I21">
-        <v>0.1226810226883485</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J21">
-        <v>0.1400069685560854</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>216.91135</v>
       </c>
       <c r="O21">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="P21">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="Q21">
-        <v>14.9334788021</v>
+        <v>57.47521732084999</v>
       </c>
       <c r="R21">
-        <v>134.4013092189</v>
+        <v>344.8513039251</v>
       </c>
       <c r="S21">
-        <v>0.01648702396181261</v>
+        <v>0.05195117411308193</v>
       </c>
       <c r="T21">
-        <v>0.020589612297432</v>
+        <v>0.04600208104378907</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.206538</v>
+        <v>0.794913</v>
       </c>
       <c r="H22">
-        <v>0.619614</v>
+        <v>1.589826</v>
       </c>
       <c r="I22">
-        <v>0.1226810226883485</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J22">
-        <v>0.1400069685560854</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="N22">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="O22">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="P22">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="Q22">
-        <v>31.40901575055999</v>
+        <v>111.737997249928</v>
       </c>
       <c r="R22">
-        <v>282.68114175504</v>
+        <v>670.427983499568</v>
       </c>
       <c r="S22">
-        <v>0.03467652796504533</v>
+        <v>0.1009986637853435</v>
       </c>
       <c r="T22">
-        <v>0.04330534535978476</v>
+        <v>0.08943298772525371</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.206538</v>
+        <v>0.794913</v>
       </c>
       <c r="H23">
-        <v>0.619614</v>
+        <v>1.589826</v>
       </c>
       <c r="I23">
-        <v>0.1226810226883485</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J23">
-        <v>0.1400069685560854</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="N23">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="O23">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="P23">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="Q23">
-        <v>7.680577452236999</v>
+        <v>28.2914540677335</v>
       </c>
       <c r="R23">
-        <v>46.083464713422</v>
+        <v>113.165816270934</v>
       </c>
       <c r="S23">
-        <v>0.008479595824502858</v>
+        <v>0.02557231315856026</v>
       </c>
       <c r="T23">
-        <v>0.007059757656276741</v>
+        <v>0.01509596452798316</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.206538</v>
+        <v>0.794913</v>
       </c>
       <c r="H24">
-        <v>0.619614</v>
+        <v>1.589826</v>
       </c>
       <c r="I24">
-        <v>0.1226810226883485</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J24">
-        <v>0.1400069685560854</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="N24">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="O24">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="P24">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="Q24">
-        <v>18.377026842388</v>
+        <v>54.875740258059</v>
       </c>
       <c r="R24">
-        <v>165.393241581492</v>
+        <v>329.254441548354</v>
       </c>
       <c r="S24">
-        <v>0.02028880784661629</v>
+        <v>0.04960153731678871</v>
       </c>
       <c r="T24">
-        <v>0.02533742223620804</v>
+        <v>0.04392150857989684</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.206538</v>
+        <v>0.794913</v>
       </c>
       <c r="H25">
-        <v>0.619614</v>
+        <v>1.589826</v>
       </c>
       <c r="I25">
-        <v>0.1226810226883485</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J25">
-        <v>0.1400069685560854</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="N25">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="O25">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="P25">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="Q25">
-        <v>17.676251532216</v>
+        <v>130.839735177277</v>
       </c>
       <c r="R25">
-        <v>159.086263789944</v>
+        <v>785.038411063662</v>
       </c>
       <c r="S25">
-        <v>0.01951513016013993</v>
+        <v>0.1182645004221399</v>
       </c>
       <c r="T25">
-        <v>0.02437122459831905</v>
+        <v>0.1047216588633855</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.010485</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H26">
-        <v>0.031455</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I26">
-        <v>0.006227960582979085</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J26">
-        <v>0.007107520481996315</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="N26">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="O26">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="P26">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="Q26">
-        <v>1.0683412425675</v>
+        <v>0.301288692325</v>
       </c>
       <c r="R26">
-        <v>6.410047455405001</v>
+        <v>1.80773215395</v>
       </c>
       <c r="S26">
-        <v>0.001179481880881374</v>
+        <v>0.0002723313115268681</v>
       </c>
       <c r="T26">
-        <v>0.000981987397905272</v>
+        <v>0.0002411457927081902</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.010485</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H27">
-        <v>0.031455</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I27">
-        <v>0.006227960582979085</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J27">
-        <v>0.007107520481996315</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>216.91135</v>
       </c>
       <c r="O27">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="P27">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="Q27">
-        <v>0.7581051682500001</v>
+        <v>0.2041617828722222</v>
       </c>
       <c r="R27">
-        <v>6.822946514250001</v>
+        <v>1.83745604585</v>
       </c>
       <c r="S27">
-        <v>0.0008369716286572217</v>
+        <v>0.0001845394384508816</v>
       </c>
       <c r="T27">
-        <v>0.001045241480689144</v>
+        <v>0.0002451108665488784</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.010485</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H28">
-        <v>0.031455</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I28">
-        <v>0.006227960582979085</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J28">
-        <v>0.007107520481996315</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="N28">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="O28">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="P28">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="Q28">
-        <v>1.5944936532</v>
+        <v>0.3969124397697777</v>
       </c>
       <c r="R28">
-        <v>14.3504428788</v>
+        <v>3.572211957927999</v>
       </c>
       <c r="S28">
-        <v>0.001760370467969577</v>
+        <v>0.0003587644941126238</v>
       </c>
       <c r="T28">
-        <v>0.002198416495256772</v>
+        <v>0.0004765218577508633</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.010485</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H29">
-        <v>0.031455</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I29">
-        <v>0.006227960582979085</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J29">
-        <v>0.007107520481996315</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="N29">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="O29">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="P29">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="Q29">
-        <v>0.3899081747025</v>
+        <v>0.1004960741648333</v>
       </c>
       <c r="R29">
-        <v>2.339449048215</v>
+        <v>0.6029764449889999</v>
       </c>
       <c r="S29">
-        <v>0.000430470723159479</v>
+        <v>9.083722150145736E-05</v>
       </c>
       <c r="T29">
-        <v>0.0003583919618959302</v>
+        <v>8.043516429882598E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.010485</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H30">
-        <v>0.031455</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I30">
-        <v>0.006227960582979085</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J30">
-        <v>0.007107520481996315</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="N30">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="O30">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="P30">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="Q30">
-        <v>0.9329185256100002</v>
+        <v>0.1949279966176667</v>
       </c>
       <c r="R30">
-        <v>8.396266730490002</v>
+        <v>1.754351969559</v>
       </c>
       <c r="S30">
-        <v>0.001029970999388838</v>
+        <v>0.0001761931274703509</v>
       </c>
       <c r="T30">
-        <v>0.001286266314899153</v>
+        <v>0.0002340250437345383</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.010485</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H31">
-        <v>0.031455</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I31">
-        <v>0.006227960582979085</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J31">
-        <v>0.007107520481996315</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="N31">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="O31">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="P31">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="Q31">
-        <v>0.89734333302</v>
+        <v>0.4647650735307778</v>
       </c>
       <c r="R31">
-        <v>8.07608999718</v>
+        <v>4.182885661777</v>
       </c>
       <c r="S31">
-        <v>0.0009906948829225964</v>
+        <v>0.0004200956931034999</v>
       </c>
       <c r="T31">
-        <v>0.001237216831350043</v>
+        <v>0.0005579838122107312</v>
       </c>
     </row>
   </sheetData>
